--- a/biology/Botanique/Begonia_×tuberhybrida/Begonia_×tuberhybrida.xlsx
+++ b/biology/Botanique/Begonia_×tuberhybrida/Begonia_×tuberhybrida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Begonia_%C3%97tuberhybrida</t>
+          <t>Begonia_×tuberhybrida</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia ×tuberhybrida Voss[1] , communément appelé bégonia tubéreux, est une espèce hybride de bégonia, de la famille des bégoniacées. Il existe plusieurs cultivars et variétés dont Begonia ×tuberhybrida 'Kimjongilia'.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia ×tuberhybrida Voss , communément appelé bégonia tubéreux, est une espèce hybride de bégonia, de la famille des bégoniacées. Il existe plusieurs cultivars et variétés dont Begonia ×tuberhybrida 'Kimjongilia'.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Begonia_%C3%97tuberhybrida</t>
+          <t>Begonia_×tuberhybrida</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le bégonia tubéreux est une plante à fleurs horticole couramment vendue notamment pour ses couleurs, pour sa facilité à faire fleurir, mais aussi pour le fait qu'il s'adapte très bien à la culture en pot ou en pleine terre[2]. Le bégonia tubéreux a une floraison annuelle, et fleurit principalement de juin à octobre. Originaire d'Amérique du Sud et d'Amérique centrale, le bégonia tubéreux à bénéficié d'un très grand nombre de croisements[3]. Son origine tropicale explique les conditions optimales dans lesquelles le bégonia tubéreux se développe : air chaud et humide, à l'abri d'un trop fort ensoleillement. Cela explique aussi le fait que le bégonia tubéreux est très sensible au froid.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le bégonia tubéreux est une plante à fleurs horticole couramment vendue notamment pour ses couleurs, pour sa facilité à faire fleurir, mais aussi pour le fait qu'il s'adapte très bien à la culture en pot ou en pleine terre. Le bégonia tubéreux a une floraison annuelle, et fleurit principalement de juin à octobre. Originaire d'Amérique du Sud et d'Amérique centrale, le bégonia tubéreux à bénéficié d'un très grand nombre de croisements. Son origine tropicale explique les conditions optimales dans lesquelles le bégonia tubéreux se développe : air chaud et humide, à l'abri d'un trop fort ensoleillement. Cela explique aussi le fait que le bégonia tubéreux est très sensible au froid.
 Synonymes :
-Begonia tuberhybrida var. grandiflora Voss[4],
-Begonia tuberosa hort.[5],</t>
+Begonia tuberhybrida var. grandiflora Voss,
+Begonia tuberosa hort.,</t>
         </is>
       </c>
     </row>
